--- a/src/algorithms/plan_fact_module/Plan2.xlsx
+++ b/src/algorithms/plan_fact_module/Plan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="11">
   <si>
     <t>CarAmount</t>
   </si>
@@ -44,12 +44,21 @@
   <si>
     <t>МЕДЬ</t>
   </si>
+  <si>
+    <t>Неверовская</t>
+  </si>
+  <si>
+    <t>Оскемен-1</t>
+  </si>
+  <si>
+    <t>КОНЦЕНТР ЦИН</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +73,32 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -97,10 +125,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -108,9 +137,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -947,6 +981,516 @@
         <v>7</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>44440</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>44441</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>44442</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>44443</v>
+      </c>
+      <c r="B37" s="4">
+        <v>0</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>44444</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>44445</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>44446</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>44447</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>44448</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>44449</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44450</v>
+      </c>
+      <c r="B44" s="4">
+        <v>0</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44451</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>44452</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>44453</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>44454</v>
+      </c>
+      <c r="B48" s="4">
+        <v>0</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>44455</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>44456</v>
+      </c>
+      <c r="B50" s="4">
+        <v>0</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>44457</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>44458</v>
+      </c>
+      <c r="B52" s="4">
+        <v>0</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>44459</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>44460</v>
+      </c>
+      <c r="B54" s="4">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>44461</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>44462</v>
+      </c>
+      <c r="B56" s="4">
+        <v>0</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>44463</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>44464</v>
+      </c>
+      <c r="B58" s="4">
+        <v>0</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>44465</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>44466</v>
+      </c>
+      <c r="B60" s="4">
+        <v>0</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>44467</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>44468</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>44469</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
